--- a/PM_LSN_KYGA/PM_输出产物.xlsx
+++ b/PM_LSN_KYGA/PM_输出产物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="897" firstSheet="14" activeTab="29"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="897" firstSheet="14" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="1.1干系人管理" sheetId="20" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="13.2客户培训确认单" sheetId="30" r:id="rId37"/>
     <sheet name="权限分配" sheetId="17" r:id="rId38"/>
     <sheet name="5.1需求的确定计划" sheetId="49" r:id="rId39"/>
+    <sheet name="Sheet40" sheetId="56" r:id="rId40"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">'7.2_1接口设计'!$A$2:$AA$65</definedName>
@@ -1941,7 +1942,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7158" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7119" uniqueCount="1880">
   <si>
     <t>名字</t>
   </si>
@@ -11733,9 +11734,6 @@
     <t>操作类型</t>
   </si>
   <si>
-    <t>数据表参数</t>
-  </si>
-  <si>
     <t>请求体</t>
   </si>
   <si>
@@ -11767,11 +11765,6 @@
   </si>
   <si>
     <t>/students/testPaper/select</t>
-  </si>
-  <si>
-    <t>200：查询成功
-403：禁止访问
-500：查询失败</t>
   </si>
   <si>
     <t>GET</t>
@@ -11803,7 +11796,7 @@
     <t>获取单个考试试卷</t>
   </si>
   <si>
-    <t>/students/testPaper/select/${testId}</t>
+    <t>/students/testPaper/select/{testId}</t>
   </si>
   <si>
     <t>{
@@ -11971,10 +11964,6 @@
     <t>/students/alarm/add/{proposerId}/{tltle}/{type}/{content}/{alarmMsgId}/{alarmId}/{alarmPostion}/{isDeleted}</t>
   </si>
   <si>
-    <t>200：发送成功
-500：发送失败</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -11998,12 +11987,7 @@
     <t>学生能够登录</t>
   </si>
   <si>
-    <t>/students/dent/select/{schoolNumber}/{password}</t>
-  </si>
-  <si>
-    <t>200：登录成功
-403：拒绝访问
-500：登录失败</t>
+    <t>/students/student/select/{schoolNumber}/{password}</t>
   </si>
   <si>
     <t>{
@@ -12028,10 +12012,6 @@
   </si>
   <si>
     <t>/students/student/select/{schoolNumber}}</t>
-  </si>
-  <si>
-    <t>200：查询成功
-500：查询失败</t>
   </si>
   <si>
     <t>{
@@ -12057,10 +12037,6 @@
   </si>
   <si>
     <t>/students/student/select/{schoolNumber}/{phoneNumber}</t>
-  </si>
-  <si>
-    <t>200：修改成功
-500：修改失败</t>
   </si>
   <si>
     <t>PUT</t>
@@ -12313,10 +12289,6 @@
     <t>/system/securityArticle/add/{articleTitle}/{articleContent}/{articleType}</t>
   </si>
   <si>
-    <t>200：添加成功
-500：添加失败</t>
-  </si>
-  <si>
     <t>{
 "article_title"：,
 "article_content"：,
@@ -12349,10 +12321,6 @@
   </si>
   <si>
     <t>/system/securityArticle/delete/{articleId}</t>
-  </si>
-  <si>
-    <t>200：删除成功
-500：删除失败</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -12445,10 +12413,6 @@
   </si>
   <si>
     <t>/system/alarmStatusUpdatedRecord/add/{conductorId}/{alarmMsgId}/{conductTime}/{conductComment}/{conductSState}</t>
-  </si>
-  <si>
-    <t>200：处理成功
-500：处理失败</t>
   </si>
   <si>
     <t>{
@@ -14422,43 +14386,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="37">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="183" formatCode="m/d"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="180" formatCode="#\ ??"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
+    <numFmt numFmtId="189" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="190" formatCode="m/d"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="191" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="mmmmm"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="186" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="187" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="#\ ??"/>
-    <numFmt numFmtId="190" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="194" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="200" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="195" formatCode="mmmmm"/>
-    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="197" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="198" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="200" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -14604,15 +14568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14620,21 +14583,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14648,14 +14596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -14666,30 +14606,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14704,6 +14629,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -14717,9 +14658,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14732,6 +14672,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -14739,15 +14703,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFE26B0A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFE26B0A"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -15046,7 +15010,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15058,7 +15058,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15070,7 +15106,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15082,115 +15154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15362,16 +15326,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -15388,6 +15372,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15411,42 +15410,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15455,7 +15419,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15464,124 +15428,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="51" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="64" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="52" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15590,22 +15554,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15703,7 +15667,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15712,7 +15676,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -46017,10 +45981,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
@@ -46038,19 +46002,19 @@
     <col min="9" max="9" width="13.125" style="49" customWidth="1"/>
     <col min="10" max="10" width="12" style="49" customWidth="1"/>
     <col min="11" max="11" width="16.0166666666667" style="49" customWidth="1"/>
-    <col min="12" max="13" width="9" style="49"/>
-    <col min="14" max="14" width="27.375" style="49" customWidth="1"/>
-    <col min="15" max="15" width="35.475" style="49" customWidth="1"/>
-    <col min="16" max="16" width="39.375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="9" style="49"/>
-    <col min="18" max="18" width="12.1916666666667" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="49" customWidth="1"/>
-    <col min="20" max="20" width="12.8166666666667" style="49" customWidth="1"/>
-    <col min="21" max="21" width="13.75" style="49" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="49"/>
+    <col min="12" max="12" width="9" style="49"/>
+    <col min="13" max="13" width="27.375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="35.475" style="49" customWidth="1"/>
+    <col min="15" max="15" width="39.375" style="49" customWidth="1"/>
+    <col min="16" max="16" width="9" style="49"/>
+    <col min="17" max="17" width="12.1916666666667" style="49" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="12.8166666666667" style="49" customWidth="1"/>
+    <col min="20" max="20" width="13.75" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:21">
+    <row r="1" ht="42.75" spans="1:20">
       <c r="A1" s="50" t="s">
         <v>64</v>
       </c>
@@ -46084,13 +46048,13 @@
       <c r="M1" s="65" t="s">
         <v>1184</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="50" t="s">
         <v>1185</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="65" t="s">
         <v>1186</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="50" t="s">
         <v>1187</v>
       </c>
       <c r="Q1" s="50" t="s">
@@ -46105,11 +46069,8 @@
       <c r="T1" s="50" t="s">
         <v>1191</v>
       </c>
-      <c r="U1" s="50" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:21">
+    </row>
+    <row r="2" ht="14.25" spans="1:20">
       <c r="A2" s="52"/>
       <c r="B2" s="50" t="s">
         <v>313</v>
@@ -46138,9 +46099,8 @@
       <c r="R2" s="50"/>
       <c r="S2" s="50"/>
       <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" ht="168" customHeight="1" spans="1:21">
+    </row>
+    <row r="3" ht="168" customHeight="1" spans="1:20">
       <c r="A3" s="53" t="s">
         <v>335</v>
       </c>
@@ -46155,13 +46115,13 @@
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="50" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1193</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="H3" s="50" t="s">
         <v>1194</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>1195</v>
       </c>
       <c r="I3" s="50" t="s">
         <v>10</v>
@@ -46169,37 +46129,34 @@
       <c r="J3" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65" t="s">
         <v>1196</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="O3" s="65" t="s">
         <v>1197</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65" t="s">
-        <v>1198</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q3" s="69">
+        <v>44507</v>
+      </c>
       <c r="R3" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S3" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T3" s="69">
         <v>44511</v>
       </c>
-      <c r="T3" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U3" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="4" ht="160.3" customHeight="1" spans="1:21">
+    </row>
+    <row r="4" ht="160.3" customHeight="1" spans="1:20">
       <c r="A4" s="50" t="s">
         <v>346</v>
       </c>
@@ -46210,13 +46167,13 @@
         <v>342</v>
       </c>
       <c r="F4" s="50" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>1200</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>1202</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>10</v>
@@ -46224,39 +46181,36 @@
       <c r="J4" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K4" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K4" s="65"/>
       <c r="L4" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O4" s="65" t="s">
         <v>1197</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="65" t="s">
-        <v>1203</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>1204</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Q4" s="50" t="s">
+      <c r="P4" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q4" s="69">
+        <v>44507</v>
+      </c>
       <c r="R4" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S4" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T4" s="69">
         <v>44511</v>
       </c>
-      <c r="T4" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U4" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="5" ht="75.2" customHeight="1" spans="1:21">
+    </row>
+    <row r="5" ht="75.2" customHeight="1" spans="1:20">
       <c r="A5" s="50" t="s">
         <v>352</v>
       </c>
@@ -46267,13 +46221,13 @@
         <v>345</v>
       </c>
       <c r="F5" s="50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>1205</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>1207</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>10</v>
@@ -46281,39 +46235,36 @@
       <c r="J5" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K5" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K5" s="65"/>
       <c r="L5" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M5" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>1206</v>
+      </c>
       <c r="N5" s="65" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O5" s="65" t="s">
         <v>1208</v>
       </c>
-      <c r="O5" s="65" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Q5" s="50" t="s">
+      <c r="P5" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q5" s="69">
+        <v>44507</v>
+      </c>
       <c r="R5" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S5" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T5" s="69">
         <v>44511</v>
       </c>
-      <c r="T5" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U5" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:21">
+    </row>
+    <row r="6" ht="40.5" spans="1:20">
       <c r="A6" s="50" t="s">
         <v>358</v>
       </c>
@@ -46330,25 +46281,24 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="Q6" s="69">
+        <v>44507</v>
+      </c>
       <c r="R6" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S6" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T6" s="69">
         <v>44511</v>
       </c>
-      <c r="T6" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U6" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="7" ht="98.25" customHeight="1" spans="1:21">
+    </row>
+    <row r="7" ht="98.25" customHeight="1" spans="1:20">
       <c r="A7" s="50" t="s">
         <v>364</v>
       </c>
@@ -46359,13 +46309,13 @@
         <v>351</v>
       </c>
       <c r="F7" s="50" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>1211</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>1213</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>10</v>
@@ -46373,37 +46323,34 @@
       <c r="J7" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K7" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K7" s="65"/>
       <c r="L7" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="65"/>
+        <v>1195</v>
+      </c>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65" t="s">
+        <v>1212</v>
+      </c>
       <c r="O7" s="65" t="s">
-        <v>1214</v>
-      </c>
-      <c r="P7" s="65" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q7" s="50" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P7" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q7" s="69">
+        <v>44507</v>
+      </c>
       <c r="R7" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S7" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T7" s="69">
         <v>44511</v>
       </c>
-      <c r="T7" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U7" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:21">
+    </row>
+    <row r="8" ht="27" spans="1:20">
       <c r="A8" s="50" t="s">
         <v>367</v>
       </c>
@@ -46420,25 +46367,24 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="Q8" s="69">
+        <v>44507</v>
+      </c>
       <c r="R8" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S8" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T8" s="69">
         <v>44511</v>
       </c>
-      <c r="T8" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U8" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="9" ht="114.45" customHeight="1" spans="1:21">
+    </row>
+    <row r="9" ht="114.45" customHeight="1" spans="1:20">
       <c r="A9" s="50" t="s">
         <v>370</v>
       </c>
@@ -46449,13 +46395,13 @@
         <v>357</v>
       </c>
       <c r="F9" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>1216</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>1218</v>
       </c>
       <c r="I9" s="50" t="s">
         <v>10</v>
@@ -46463,39 +46409,36 @@
       <c r="J9" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K9" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K9" s="65"/>
       <c r="L9" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M9" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>1217</v>
+      </c>
       <c r="N9" s="65" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O9" s="65" t="s">
         <v>1219</v>
       </c>
-      <c r="O9" s="65" t="s">
-        <v>1220</v>
-      </c>
-      <c r="P9" s="65" t="s">
-        <v>1221</v>
-      </c>
-      <c r="Q9" s="50" t="s">
+      <c r="P9" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q9" s="69">
+        <v>44507</v>
+      </c>
       <c r="R9" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S9" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T9" s="69">
         <v>44511</v>
       </c>
-      <c r="T9" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U9" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:21">
+    </row>
+    <row r="10" ht="27" spans="1:20">
       <c r="A10" s="50" t="s">
         <v>374</v>
       </c>
@@ -46512,25 +46455,24 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="Q10" s="69">
+        <v>44507</v>
+      </c>
       <c r="R10" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S10" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T10" s="69">
         <v>44511</v>
       </c>
-      <c r="T10" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U10" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="11" ht="98.65" customHeight="1" spans="1:21">
+    </row>
+    <row r="11" ht="98.65" customHeight="1" spans="1:20">
       <c r="A11" s="50" t="s">
         <v>377</v>
       </c>
@@ -46541,13 +46483,13 @@
         <v>363</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I11" s="50" t="s">
         <v>10</v>
@@ -46555,37 +46497,34 @@
       <c r="J11" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K11" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K11" s="65"/>
       <c r="L11" s="50" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
+      <c r="N11" s="65" t="s">
+        <v>1222</v>
+      </c>
       <c r="O11" s="65" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q11" s="50" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P11" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q11" s="69">
+        <v>44507</v>
+      </c>
       <c r="R11" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S11" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T11" s="69">
         <v>44511</v>
       </c>
-      <c r="T11" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U11" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="12" ht="99.4" customHeight="1" spans="1:21">
+    </row>
+    <row r="12" ht="99.4" customHeight="1" spans="1:20">
       <c r="A12" s="50" t="s">
         <v>380</v>
       </c>
@@ -46596,13 +46535,13 @@
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="50" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>10</v>
@@ -46610,37 +46549,34 @@
       <c r="J12" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K12" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K12" s="65"/>
       <c r="L12" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="65"/>
+        <v>1195</v>
+      </c>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65" t="s">
+        <v>1212</v>
+      </c>
       <c r="O12" s="65" t="s">
-        <v>1214</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Q12" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P12" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q12" s="69">
+        <v>44507</v>
+      </c>
       <c r="R12" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S12" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T12" s="69">
         <v>44511</v>
       </c>
-      <c r="T12" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U12" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="13" ht="86.05" customHeight="1" spans="1:21">
+    </row>
+    <row r="13" ht="86.05" customHeight="1" spans="1:20">
       <c r="A13" s="50" t="s">
         <v>383</v>
       </c>
@@ -46653,13 +46589,13 @@
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="50" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H13" s="50" t="s">
         <v>1228</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>1230</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>10</v>
@@ -46667,37 +46603,34 @@
       <c r="J13" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K13" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K13" s="65"/>
       <c r="L13" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65" t="s">
-        <v>1231</v>
+        <v>1195</v>
+      </c>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>1230</v>
       </c>
       <c r="P13" s="50" t="s">
-        <v>1232</v>
-      </c>
-      <c r="Q13" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q13" s="69">
+        <v>44507</v>
+      </c>
       <c r="R13" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S13" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T13" s="69">
         <v>44511</v>
       </c>
-      <c r="T13" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U13" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="14" ht="85.1" customHeight="1" spans="1:21">
+    </row>
+    <row r="14" ht="85.1" customHeight="1" spans="1:20">
       <c r="A14" s="50" t="s">
         <v>387</v>
       </c>
@@ -46708,13 +46641,13 @@
         <v>376</v>
       </c>
       <c r="F14" s="50" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>1233</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>1235</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>10</v>
@@ -46722,39 +46655,36 @@
       <c r="J14" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K14" s="65" t="s">
-        <v>1196</v>
-      </c>
+      <c r="K14" s="65"/>
       <c r="L14" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M14" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>1234</v>
+      </c>
       <c r="N14" s="65" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O14" s="65" t="s">
-        <v>1231</v>
+        <v>1229</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>1230</v>
       </c>
       <c r="P14" s="50" t="s">
-        <v>1232</v>
-      </c>
-      <c r="Q14" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q14" s="69">
+        <v>44507</v>
+      </c>
       <c r="R14" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S14" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T14" s="69">
         <v>44511</v>
       </c>
-      <c r="T14" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U14" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:21">
+    </row>
+    <row r="15" ht="27" spans="1:20">
       <c r="A15" s="50" t="s">
         <v>390</v>
       </c>
@@ -46773,25 +46703,24 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="50"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="69">
+        <v>44507</v>
+      </c>
       <c r="R15" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S15" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T15" s="69">
         <v>44511</v>
       </c>
-      <c r="T15" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U15" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="16" ht="154.2" customHeight="1" spans="1:21">
+    </row>
+    <row r="16" ht="154.2" customHeight="1" spans="1:20">
       <c r="A16" s="50" t="s">
         <v>393</v>
       </c>
@@ -46802,13 +46731,13 @@
         <v>382</v>
       </c>
       <c r="F16" s="50" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H16" s="50" t="s">
         <v>1237</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>1239</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>10</v>
@@ -46816,39 +46745,36 @@
       <c r="J16" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="65"/>
+      <c r="L16" s="50" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O16" s="50" t="s">
         <v>1240</v>
       </c>
-      <c r="L16" s="50" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="65" t="s">
-        <v>1242</v>
-      </c>
-      <c r="O16" s="65" t="s">
-        <v>1242</v>
-      </c>
       <c r="P16" s="50" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q16" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q16" s="69">
+        <v>44507</v>
+      </c>
       <c r="R16" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S16" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T16" s="69">
         <v>44511</v>
       </c>
-      <c r="T16" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U16" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:21">
+    </row>
+    <row r="17" ht="40.5" spans="1:20">
       <c r="A17" s="50" t="s">
         <v>512</v>
       </c>
@@ -46867,25 +46793,24 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="50"/>
       <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="69">
+        <v>44507</v>
+      </c>
       <c r="R17" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S17" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T17" s="69">
         <v>44511</v>
       </c>
-      <c r="T17" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U17" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="18" s="48" customFormat="1" ht="54.45" customHeight="1" spans="1:21">
+    </row>
+    <row r="18" s="48" customFormat="1" ht="54.45" customHeight="1" spans="1:20">
       <c r="A18" s="55" t="s">
         <v>513</v>
       </c>
@@ -46896,13 +46821,13 @@
         <v>389</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>10</v>
@@ -46910,39 +46835,36 @@
       <c r="J18" s="55" t="s">
         <v>1164</v>
       </c>
-      <c r="K18" s="68" t="s">
-        <v>1247</v>
-      </c>
+      <c r="K18" s="68"/>
       <c r="L18" s="55" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M18" s="55"/>
+        <v>1238</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>1244</v>
+      </c>
       <c r="N18" s="68" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O18" s="68" t="s">
-        <v>1249</v>
+        <v>1245</v>
+      </c>
+      <c r="O18" s="55" t="s">
+        <v>1240</v>
       </c>
       <c r="P18" s="55" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q18" s="55" t="s">
         <v>18</v>
       </c>
+      <c r="Q18" s="69">
+        <v>44507</v>
+      </c>
       <c r="R18" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S18" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T18" s="69">
         <v>44511</v>
       </c>
-      <c r="T18" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U18" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:21">
+    </row>
+    <row r="19" ht="27" spans="1:20">
       <c r="A19" s="50" t="s">
         <v>514</v>
       </c>
@@ -46961,23 +46883,22 @@
       <c r="L19" s="50"/>
       <c r="M19" s="65"/>
       <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
+      <c r="Q19" s="69">
+        <v>44507</v>
+      </c>
       <c r="R19" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S19" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T19" s="69">
         <v>44511</v>
       </c>
-      <c r="T19" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U19" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="20" ht="85.5" spans="1:21">
+    </row>
+    <row r="20" ht="85.5" spans="1:20">
       <c r="A20" s="50" t="s">
         <v>515</v>
       </c>
@@ -46985,16 +46906,16 @@
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
       <c r="E20" s="60" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>10</v>
@@ -47002,39 +46923,36 @@
       <c r="J20" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K20" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K20" s="65"/>
       <c r="L20" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M20" s="65"/>
+        <v>1195</v>
+      </c>
+      <c r="M20" s="65" t="s">
+        <v>1250</v>
+      </c>
       <c r="N20" s="65" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O20" s="65" t="s">
-        <v>1256</v>
+        <v>1251</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>1240</v>
       </c>
       <c r="P20" s="50" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q20" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q20" s="69">
+        <v>44507</v>
+      </c>
       <c r="R20" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S20" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T20" s="69">
         <v>44511</v>
       </c>
-      <c r="T20" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U20" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="21" s="48" customFormat="1" ht="57" spans="1:21">
+    </row>
+    <row r="21" s="48" customFormat="1" ht="57" spans="1:20">
       <c r="A21" s="55" t="s">
         <v>516</v>
       </c>
@@ -47042,16 +46960,16 @@
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
       <c r="E21" s="66" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>10</v>
@@ -47059,39 +46977,36 @@
       <c r="J21" s="55" t="s">
         <v>1164</v>
       </c>
-      <c r="K21" s="68" t="s">
-        <v>1261</v>
-      </c>
+      <c r="K21" s="68"/>
       <c r="L21" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M21" s="55"/>
+        <v>1256</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>1257</v>
+      </c>
       <c r="N21" s="68" t="s">
-        <v>1263</v>
-      </c>
-      <c r="O21" s="68" t="s">
-        <v>1249</v>
+        <v>1245</v>
+      </c>
+      <c r="O21" s="55" t="s">
+        <v>1240</v>
       </c>
       <c r="P21" s="55" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q21" s="55" t="s">
         <v>18</v>
       </c>
+      <c r="Q21" s="69">
+        <v>44507</v>
+      </c>
       <c r="R21" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S21" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T21" s="69">
         <v>44511</v>
       </c>
-      <c r="T21" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U21" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="22" ht="54" spans="1:21">
+    </row>
+    <row r="22" ht="54" spans="1:20">
       <c r="A22" s="57" t="s">
         <v>396</v>
       </c>
@@ -47114,23 +47029,22 @@
       <c r="L22" s="50"/>
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
+      <c r="Q22" s="69">
+        <v>44507</v>
+      </c>
       <c r="R22" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S22" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T22" s="69">
         <v>44511</v>
       </c>
-      <c r="T22" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U22" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="23" ht="87" customHeight="1" spans="1:21">
+    </row>
+    <row r="23" ht="87" customHeight="1" spans="1:20">
       <c r="A23" s="51" t="s">
         <v>399</v>
       </c>
@@ -47141,13 +47055,13 @@
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="65" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>10</v>
@@ -47155,54 +47069,51 @@
       <c r="J23" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K23" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K23" s="65"/>
       <c r="L23" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M23" s="50"/>
-      <c r="N23" s="65"/>
+        <v>1195</v>
+      </c>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
+        <v>1261</v>
+      </c>
       <c r="O23" s="65" t="s">
-        <v>1267</v>
-      </c>
-      <c r="P23" s="65" t="s">
-        <v>1268</v>
-      </c>
-      <c r="Q23" s="50" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P23" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q23" s="69">
+        <v>44507</v>
+      </c>
       <c r="R23" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S23" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T23" s="69">
         <v>44511</v>
       </c>
-      <c r="T23" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U23" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="24" ht="72" customHeight="1" spans="1:21">
+    </row>
+    <row r="24" ht="72" customHeight="1" spans="1:20">
       <c r="A24" s="51" t="s">
         <v>402</v>
       </c>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="60" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="65" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="H24" s="65" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>10</v>
@@ -47210,37 +47121,34 @@
       <c r="J24" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K24" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K24" s="65"/>
       <c r="L24" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M24" s="50"/>
-      <c r="N24" s="65"/>
+        <v>1195</v>
+      </c>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65" t="s">
+        <v>1266</v>
+      </c>
       <c r="O24" s="65" t="s">
-        <v>1272</v>
-      </c>
-      <c r="P24" s="65" t="s">
-        <v>1273</v>
-      </c>
-      <c r="Q24" s="50" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P24" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q24" s="69">
+        <v>44507</v>
+      </c>
       <c r="R24" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S24" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T24" s="69">
         <v>44511</v>
       </c>
-      <c r="T24" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U24" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="25" ht="85.5" spans="1:21">
+    </row>
+    <row r="25" ht="85.5" spans="1:20">
       <c r="A25" s="51" t="s">
         <v>404</v>
       </c>
@@ -47249,13 +47157,13 @@
       <c r="D25" s="60"/>
       <c r="E25" s="51"/>
       <c r="F25" s="65" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>10</v>
@@ -47263,39 +47171,36 @@
       <c r="J25" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K25" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K25" s="65"/>
       <c r="L25" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M25" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>1271</v>
+      </c>
       <c r="N25" s="65" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P25" s="65" t="s">
-        <v>1273</v>
-      </c>
-      <c r="Q25" s="50" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P25" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q25" s="69">
+        <v>44507</v>
+      </c>
       <c r="R25" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S25" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T25" s="69">
         <v>44511</v>
       </c>
-      <c r="T25" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U25" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="26" ht="76.5" customHeight="1" spans="1:21">
+    </row>
+    <row r="26" ht="76.5" customHeight="1" spans="1:20">
       <c r="A26" s="50" t="s">
         <v>406</v>
       </c>
@@ -47306,13 +47211,13 @@
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="65" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="H26" s="65" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>10</v>
@@ -47320,36 +47225,33 @@
       <c r="J26" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K26" s="65" t="s">
-        <v>1261</v>
-      </c>
+      <c r="K26" s="65"/>
       <c r="L26" s="50" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O26" s="65" t="s">
         <v>1262</v>
       </c>
-      <c r="M26" s="50"/>
-      <c r="O26" s="65" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P26" s="65" t="s">
-        <v>1268</v>
-      </c>
-      <c r="Q26" s="50" t="s">
+      <c r="P26" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q26" s="69">
+        <v>44507</v>
+      </c>
       <c r="R26" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S26" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T26" s="69">
         <v>44511</v>
       </c>
-      <c r="T26" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U26" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:21">
+    </row>
+    <row r="27" ht="27" spans="1:20">
       <c r="A27" s="50" t="s">
         <v>409</v>
       </c>
@@ -47368,24 +47270,23 @@
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
       <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="50"/>
       <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
+      <c r="Q27" s="69">
+        <v>44507</v>
+      </c>
       <c r="R27" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S27" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T27" s="69">
         <v>44511</v>
       </c>
-      <c r="T27" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U27" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="28" ht="142.5" spans="1:21">
+    </row>
+    <row r="28" ht="142.5" spans="1:20">
       <c r="A28" s="50" t="s">
         <v>412</v>
       </c>
@@ -47396,13 +47297,13 @@
         <v>414</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="I28" s="50" t="s">
         <v>10</v>
@@ -47410,36 +47311,33 @@
       <c r="J28" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K28" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K28" s="65"/>
       <c r="L28" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M28" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>1280</v>
+      </c>
       <c r="O28" s="65" t="s">
-        <v>1286</v>
-      </c>
-      <c r="P28" s="65" t="s">
-        <v>1287</v>
-      </c>
-      <c r="Q28" s="50" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P28" s="50" t="s">
         <v>18</v>
       </c>
+      <c r="Q28" s="69">
+        <v>44507</v>
+      </c>
       <c r="R28" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S28" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T28" s="69">
         <v>44511</v>
       </c>
-      <c r="T28" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U28" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" spans="1:21">
+    </row>
+    <row r="29" ht="40.5" spans="1:20">
       <c r="A29" s="50" t="s">
         <v>421</v>
       </c>
@@ -47458,24 +47356,23 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
       <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
       <c r="O29" s="50"/>
       <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
+      <c r="Q29" s="69">
+        <v>44507</v>
+      </c>
       <c r="R29" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S29" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T29" s="69">
         <v>44511</v>
       </c>
-      <c r="T29" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U29" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="30" ht="73.85" customHeight="1" spans="1:21">
+    </row>
+    <row r="30" ht="73.85" customHeight="1" spans="1:20">
       <c r="A30" s="50" t="s">
         <v>425</v>
       </c>
@@ -47486,13 +47383,13 @@
         <v>427</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="I30" s="50" t="s">
         <v>10</v>
@@ -47500,39 +47397,36 @@
       <c r="J30" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K30" s="68" t="s">
-        <v>1247</v>
-      </c>
+      <c r="K30" s="68"/>
       <c r="L30" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M30" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M30" s="65" t="s">
+        <v>1285</v>
+      </c>
       <c r="N30" s="65" t="s">
-        <v>1291</v>
-      </c>
-      <c r="O30" s="65" t="s">
-        <v>1292</v>
+        <v>1286</v>
+      </c>
+      <c r="O30" s="50" t="s">
+        <v>1287</v>
       </c>
       <c r="P30" s="50" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q30" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q30" s="69">
+        <v>44507</v>
       </c>
       <c r="R30" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S30" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T30" s="69">
         <v>44511</v>
       </c>
-      <c r="T30" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U30" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="1:21">
+    </row>
+    <row r="31" ht="27" spans="1:20">
       <c r="A31" s="50" t="s">
         <v>428</v>
       </c>
@@ -47549,24 +47443,23 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
       <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="50"/>
       <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
+      <c r="Q31" s="69">
+        <v>44507</v>
+      </c>
       <c r="R31" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S31" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T31" s="69">
         <v>44511</v>
       </c>
-      <c r="T31" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U31" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="32" ht="115.8" customHeight="1" spans="1:21">
+    </row>
+    <row r="32" ht="115.8" customHeight="1" spans="1:20">
       <c r="A32" s="50" t="s">
         <v>431</v>
       </c>
@@ -47574,16 +47467,16 @@
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
       <c r="E32" s="60" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="I32" s="50" t="s">
         <v>10</v>
@@ -47591,56 +47484,53 @@
       <c r="J32" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K32" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K32" s="65"/>
       <c r="L32" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M32" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M32" s="65" t="s">
+        <v>1293</v>
+      </c>
       <c r="N32" s="65" t="s">
-        <v>1299</v>
-      </c>
-      <c r="O32" s="65" t="s">
-        <v>1300</v>
+        <v>1294</v>
+      </c>
+      <c r="O32" s="50" t="s">
+        <v>1295</v>
       </c>
       <c r="P32" s="50" t="s">
-        <v>1301</v>
-      </c>
-      <c r="Q32" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q32" s="69">
+        <v>44507</v>
       </c>
       <c r="R32" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S32" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T32" s="69">
         <v>44511</v>
       </c>
-      <c r="T32" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U32" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="33" ht="102.2" customHeight="1" spans="1:21">
+    </row>
+    <row r="33" ht="102.2" customHeight="1" spans="1:20">
       <c r="A33" s="50" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="E33" s="60" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="H33" s="65" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="I33" s="50" t="s">
         <v>10</v>
@@ -47648,39 +47538,36 @@
       <c r="J33" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K33" s="65" t="s">
-        <v>1261</v>
-      </c>
+      <c r="K33" s="65"/>
       <c r="L33" s="50" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M33" s="50"/>
+        <v>1256</v>
+      </c>
+      <c r="M33" s="65" t="s">
+        <v>1301</v>
+      </c>
       <c r="N33" s="65" t="s">
-        <v>1307</v>
-      </c>
-      <c r="O33" s="65" t="s">
-        <v>1300</v>
+        <v>1294</v>
+      </c>
+      <c r="O33" s="50" t="s">
+        <v>1295</v>
       </c>
       <c r="P33" s="50" t="s">
-        <v>1301</v>
-      </c>
-      <c r="Q33" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q33" s="69">
+        <v>44507</v>
       </c>
       <c r="R33" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S33" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T33" s="69">
         <v>44511</v>
       </c>
-      <c r="T33" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U33" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:21">
+    </row>
+    <row r="34" ht="27" spans="1:20">
       <c r="A34" s="50" t="s">
         <v>434</v>
       </c>
@@ -47701,24 +47588,23 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
       <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
       <c r="O34" s="50"/>
       <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
+      <c r="Q34" s="69">
+        <v>44507</v>
+      </c>
       <c r="R34" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S34" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T34" s="69">
         <v>44511</v>
       </c>
-      <c r="T34" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U34" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="35" ht="71.25" spans="1:21">
+    </row>
+    <row r="35" ht="71.25" spans="1:20">
       <c r="A35" s="50" t="s">
         <v>438</v>
       </c>
@@ -47729,13 +47615,13 @@
         <v>440</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="H35" s="68" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I35" s="50" t="s">
         <v>10</v>
@@ -47743,36 +47629,33 @@
       <c r="J35" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K35" s="68" t="s">
-        <v>1247</v>
-      </c>
+      <c r="K35" s="68"/>
       <c r="L35" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M35" s="50"/>
-      <c r="O35" s="65" t="s">
-        <v>1292</v>
+        <v>1195</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O35" s="50" t="s">
+        <v>1287</v>
       </c>
       <c r="P35" s="50" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q35" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q35" s="69">
+        <v>44507</v>
       </c>
       <c r="R35" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S35" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T35" s="69">
         <v>44511</v>
       </c>
-      <c r="T35" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U35" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:21">
+    </row>
+    <row r="36" ht="27" spans="1:20">
       <c r="A36" s="50" t="s">
         <v>441</v>
       </c>
@@ -47789,24 +47672,23 @@
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
-      <c r="M36" s="65"/>
-      <c r="O36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
+      <c r="Q36" s="69">
+        <v>44507</v>
+      </c>
       <c r="R36" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S36" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T36" s="69">
         <v>44511</v>
       </c>
-      <c r="T36" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U36" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="37" ht="71.25" spans="1:21">
+    </row>
+    <row r="37" ht="71.25" spans="1:20">
       <c r="A37" s="50" t="s">
         <v>444</v>
       </c>
@@ -47814,16 +47696,16 @@
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="H37" s="68" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="I37" s="50" t="s">
         <v>10</v>
@@ -47831,36 +47713,33 @@
       <c r="J37" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K37" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K37" s="65"/>
       <c r="L37" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M37" s="65"/>
-      <c r="O37" s="65" t="s">
-        <v>1315</v>
+        <v>1195</v>
+      </c>
+      <c r="N37" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="O37" s="50" t="s">
+        <v>1310</v>
       </c>
       <c r="P37" s="50" t="s">
-        <v>1316</v>
-      </c>
-      <c r="Q37" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q37" s="69">
+        <v>44507</v>
       </c>
       <c r="R37" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S37" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T37" s="69">
         <v>44511</v>
       </c>
-      <c r="T37" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U37" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="38" ht="71.25" spans="1:21">
+    </row>
+    <row r="38" ht="71.25" spans="1:20">
       <c r="A38" s="50" t="s">
         <v>447</v>
       </c>
@@ -47868,16 +47747,16 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I38" s="50" t="s">
         <v>10</v>
@@ -47885,36 +47764,33 @@
       <c r="J38" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K38" s="65" t="s">
-        <v>1261</v>
-      </c>
+      <c r="K38" s="65"/>
       <c r="L38" s="50" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M38" s="50"/>
-      <c r="O38" s="65" t="s">
-        <v>1315</v>
+        <v>1256</v>
+      </c>
+      <c r="N38" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="O38" s="50" t="s">
+        <v>1310</v>
       </c>
       <c r="P38" s="50" t="s">
-        <v>1316</v>
-      </c>
-      <c r="Q38" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q38" s="69">
+        <v>44507</v>
       </c>
       <c r="R38" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S38" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T38" s="69">
         <v>44511</v>
       </c>
-      <c r="T38" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U38" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:21">
+    </row>
+    <row r="39" ht="27" spans="1:20">
       <c r="A39" s="50" t="s">
         <v>449</v>
       </c>
@@ -47931,24 +47807,23 @@
       <c r="J39" s="50"/>
       <c r="K39" s="50"/>
       <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="O39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="50"/>
       <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
+      <c r="Q39" s="69">
+        <v>44507</v>
+      </c>
       <c r="R39" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S39" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T39" s="69">
         <v>44511</v>
       </c>
-      <c r="T39" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U39" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="40" ht="85.5" spans="1:21">
+    </row>
+    <row r="40" ht="85.5" spans="1:20">
       <c r="A40" s="50" t="s">
         <v>452</v>
       </c>
@@ -47956,16 +47831,16 @@
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
       <c r="E40" s="51" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="H40" s="65" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="I40" s="50" t="s">
         <v>10</v>
@@ -47973,39 +47848,36 @@
       <c r="J40" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K40" s="65" t="s">
-        <v>1325</v>
-      </c>
+      <c r="K40" s="65"/>
       <c r="L40" s="50" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M40" s="50"/>
+        <v>1238</v>
+      </c>
+      <c r="M40" s="65" t="s">
+        <v>1319</v>
+      </c>
       <c r="N40" s="65" t="s">
-        <v>1326</v>
+        <v>1229</v>
       </c>
       <c r="O40" s="65" t="s">
-        <v>1231</v>
-      </c>
-      <c r="P40" s="65" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Q40" s="50" t="s">
-        <v>1294</v>
+        <v>1320</v>
+      </c>
+      <c r="P40" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q40" s="69">
+        <v>44507</v>
       </c>
       <c r="R40" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S40" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T40" s="69">
         <v>44511</v>
       </c>
-      <c r="T40" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U40" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="41" ht="85.5" spans="1:21">
+    </row>
+    <row r="41" ht="85.5" spans="1:20">
       <c r="A41" s="50" t="s">
         <v>455</v>
       </c>
@@ -48013,16 +47885,16 @@
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
       <c r="E41" s="51" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="G41" s="50" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="H41" s="65" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="I41" s="50" t="s">
         <v>10</v>
@@ -48030,39 +47902,36 @@
       <c r="J41" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K41" s="65" t="s">
-        <v>1261</v>
-      </c>
+      <c r="K41" s="65"/>
       <c r="L41" s="50" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M41" s="50"/>
+        <v>1256</v>
+      </c>
+      <c r="M41" s="65" t="s">
+        <v>1229</v>
+      </c>
       <c r="N41" s="65" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="O41" s="65" t="s">
-        <v>1231</v>
-      </c>
-      <c r="P41" s="65" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Q41" s="50" t="s">
-        <v>1294</v>
+        <v>1320</v>
+      </c>
+      <c r="P41" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q41" s="69">
+        <v>44507</v>
       </c>
       <c r="R41" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S41" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T41" s="69">
         <v>44511</v>
       </c>
-      <c r="T41" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U41" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="42" ht="85.5" spans="1:21">
+    </row>
+    <row r="42" ht="85.5" spans="1:20">
       <c r="A42" s="50" t="s">
         <v>458</v>
       </c>
@@ -48070,16 +47939,16 @@
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="H42" s="65" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="I42" s="50" t="s">
         <v>10</v>
@@ -48087,39 +47956,36 @@
       <c r="J42" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K42" s="65" t="s">
-        <v>1336</v>
-      </c>
+      <c r="K42" s="65"/>
       <c r="L42" s="50" t="s">
-        <v>1337</v>
-      </c>
-      <c r="M42" s="50"/>
+        <v>1329</v>
+      </c>
+      <c r="M42" s="65" t="s">
+        <v>1234</v>
+      </c>
       <c r="N42" s="65" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O42" s="65" t="s">
-        <v>1231</v>
+        <v>1229</v>
+      </c>
+      <c r="O42" s="50" t="s">
+        <v>1320</v>
       </c>
       <c r="P42" s="50" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Q42" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q42" s="69">
+        <v>44507</v>
       </c>
       <c r="R42" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S42" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T42" s="69">
         <v>44511</v>
       </c>
-      <c r="T42" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U42" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="43" ht="99.75" spans="1:21">
+    </row>
+    <row r="43" ht="99.75" spans="1:20">
       <c r="A43" s="50" t="s">
         <v>460</v>
       </c>
@@ -48132,13 +47998,13 @@
       </c>
       <c r="E43" s="51"/>
       <c r="F43" s="50" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="H43" s="68" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I43" s="50" t="s">
         <v>10</v>
@@ -48146,53 +48012,50 @@
       <c r="J43" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K43" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K43" s="65"/>
       <c r="L43" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M43" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="N43" s="65" t="s">
+        <v>1332</v>
+      </c>
       <c r="O43" s="65" t="s">
-        <v>1340</v>
-      </c>
-      <c r="P43" s="65" t="s">
-        <v>1341</v>
-      </c>
-      <c r="Q43" s="50" t="s">
-        <v>1294</v>
+        <v>1333</v>
+      </c>
+      <c r="P43" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q43" s="69">
+        <v>44507</v>
       </c>
       <c r="R43" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S43" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T43" s="69">
         <v>44511</v>
       </c>
-      <c r="T43" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U43" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="44" ht="99.75" spans="1:21">
+    </row>
+    <row r="44" ht="99.75" spans="1:20">
       <c r="A44" s="50" t="s">
         <v>463</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="50" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="H44" s="65" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="I44" s="50" t="s">
         <v>10</v>
@@ -48200,39 +48063,36 @@
       <c r="J44" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K44" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K44" s="65"/>
       <c r="L44" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M44" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M44" s="65" t="s">
+        <v>1338</v>
+      </c>
       <c r="N44" s="65" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="O44" s="65" t="s">
-        <v>1340</v>
-      </c>
-      <c r="P44" s="65" t="s">
-        <v>1347</v>
-      </c>
-      <c r="Q44" s="50" t="s">
-        <v>1294</v>
+        <v>1339</v>
+      </c>
+      <c r="P44" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q44" s="69">
+        <v>44507</v>
       </c>
       <c r="R44" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S44" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T44" s="69">
         <v>44511</v>
       </c>
-      <c r="T44" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U44" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="45" ht="99.75" spans="1:21">
+    </row>
+    <row r="45" ht="99.75" spans="1:20">
       <c r="A45" s="50" t="s">
         <v>466</v>
       </c>
@@ -48243,13 +48103,13 @@
       </c>
       <c r="E45" s="51"/>
       <c r="F45" s="50" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I45" s="50" t="s">
         <v>10</v>
@@ -48257,36 +48117,33 @@
       <c r="J45" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K45" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K45" s="65"/>
       <c r="L45" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M45" s="65"/>
+        <v>1195</v>
+      </c>
+      <c r="N45" s="65" t="s">
+        <v>1342</v>
+      </c>
       <c r="O45" s="65" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P45" s="65" t="s">
-        <v>1341</v>
-      </c>
-      <c r="Q45" s="50" t="s">
-        <v>1294</v>
+        <v>1333</v>
+      </c>
+      <c r="P45" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q45" s="69">
+        <v>44507</v>
       </c>
       <c r="R45" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S45" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T45" s="69">
         <v>44511</v>
       </c>
-      <c r="T45" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U45" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="46" ht="27" spans="1:21">
+    </row>
+    <row r="46" ht="27" spans="1:20">
       <c r="A46" s="50" t="s">
         <v>469</v>
       </c>
@@ -48305,24 +48162,23 @@
       <c r="J46" s="50"/>
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="O46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
+      <c r="Q46" s="69">
+        <v>44507</v>
+      </c>
       <c r="R46" s="69">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S46" s="69">
+        <v>44510</v>
+      </c>
+      <c r="T46" s="69">
         <v>44511</v>
       </c>
-      <c r="T46" s="69">
-        <v>44510</v>
-      </c>
-      <c r="U46" s="69">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="47" ht="128.25" spans="1:21">
+    </row>
+    <row r="47" ht="128.25" spans="1:20">
       <c r="A47" s="50" t="s">
         <v>472</v>
       </c>
@@ -48333,13 +48189,13 @@
         <v>465</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="H47" s="68" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="I47" s="50" t="s">
         <v>10</v>
@@ -48347,36 +48203,33 @@
       <c r="J47" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K47" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K47" s="65"/>
       <c r="L47" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M47" s="50"/>
-      <c r="O47" s="65" t="s">
-        <v>1354</v>
+        <v>1195</v>
+      </c>
+      <c r="N47" s="65" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O47" s="50" t="s">
+        <v>1347</v>
       </c>
       <c r="P47" s="50" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Q47" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q47" s="70">
+        <v>44507</v>
       </c>
       <c r="R47" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S47" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T47" s="70">
         <v>44511</v>
       </c>
-      <c r="T47" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U47" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="48" ht="27" spans="1:21">
+    </row>
+    <row r="48" ht="27" spans="1:20">
       <c r="A48" s="62" t="s">
         <v>481</v>
       </c>
@@ -48393,24 +48246,23 @@
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
+      <c r="N48" s="65"/>
       <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="70">
+        <v>44507</v>
+      </c>
       <c r="R48" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S48" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T48" s="70">
         <v>44511</v>
       </c>
-      <c r="T48" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U48" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="49" ht="99.75" spans="1:21">
+    </row>
+    <row r="49" ht="99.75" spans="1:20">
       <c r="A49" s="50" t="s">
         <v>485</v>
       </c>
@@ -48418,16 +48270,16 @@
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
       <c r="E49" s="51" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="H49" s="68" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="I49" s="50" t="s">
         <v>10</v>
@@ -48435,39 +48287,36 @@
       <c r="J49" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K49" s="65" t="s">
-        <v>1360</v>
-      </c>
+      <c r="K49" s="65"/>
       <c r="L49" s="50" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M49" s="65"/>
+        <v>1238</v>
+      </c>
+      <c r="M49" s="65" t="s">
+        <v>1352</v>
+      </c>
       <c r="N49" s="65" t="s">
-        <v>1361</v>
-      </c>
-      <c r="O49" s="65" t="s">
-        <v>1361</v>
+        <v>1352</v>
+      </c>
+      <c r="O49" s="50" t="s">
+        <v>1353</v>
       </c>
       <c r="P49" s="50" t="s">
-        <v>1362</v>
-      </c>
-      <c r="Q49" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q49" s="70">
+        <v>44507</v>
       </c>
       <c r="R49" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S49" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T49" s="70">
         <v>44511</v>
       </c>
-      <c r="T49" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U49" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="1:21">
+    </row>
+    <row r="50" ht="27" spans="1:20">
       <c r="A50" s="50" t="s">
         <v>488</v>
       </c>
@@ -48484,24 +48333,23 @@
       <c r="J50" s="50"/>
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="O50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="50"/>
       <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
+      <c r="Q50" s="70">
+        <v>44507</v>
+      </c>
       <c r="R50" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S50" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T50" s="70">
         <v>44511</v>
       </c>
-      <c r="T50" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U50" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="51" ht="130.3" customHeight="1" spans="1:21">
+    </row>
+    <row r="51" ht="130.3" customHeight="1" spans="1:20">
       <c r="A51" s="50" t="s">
         <v>491</v>
       </c>
@@ -48512,13 +48360,13 @@
         <v>480</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="H51" s="65" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="I51" s="50" t="s">
         <v>10</v>
@@ -48526,39 +48374,36 @@
       <c r="J51" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K51" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K51" s="65"/>
       <c r="L51" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M51" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M51" s="65" t="s">
+        <v>1357</v>
+      </c>
       <c r="N51" s="65" t="s">
-        <v>1366</v>
-      </c>
-      <c r="O51" s="65" t="s">
-        <v>1354</v>
+        <v>1346</v>
+      </c>
+      <c r="O51" s="50" t="s">
+        <v>1347</v>
       </c>
       <c r="P51" s="50" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Q51" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q51" s="70">
+        <v>44507</v>
       </c>
       <c r="R51" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S51" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T51" s="70">
         <v>44511</v>
       </c>
-      <c r="T51" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U51" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="52" ht="40.5" spans="1:21">
+    </row>
+    <row r="52" ht="40.5" spans="1:20">
       <c r="A52" s="50" t="s">
         <v>494</v>
       </c>
@@ -48579,24 +48424,23 @@
       <c r="J52" s="50"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
+      <c r="N52" s="65"/>
       <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="70">
+        <v>44507</v>
+      </c>
       <c r="R52" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S52" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T52" s="70">
         <v>44511</v>
       </c>
-      <c r="T52" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U52" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="53" ht="71.25" spans="1:21">
+    </row>
+    <row r="53" ht="71.25" spans="1:20">
       <c r="A53" s="50" t="s">
         <v>496</v>
       </c>
@@ -48607,13 +48451,13 @@
         <v>487</v>
       </c>
       <c r="F53" s="50" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="H53" s="65" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I53" s="50" t="s">
         <v>10</v>
@@ -48621,39 +48465,36 @@
       <c r="J53" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K53" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K53" s="65"/>
       <c r="L53" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M53" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M53" s="65" t="s">
+        <v>1285</v>
+      </c>
       <c r="N53" s="65" t="s">
-        <v>1291</v>
-      </c>
-      <c r="O53" s="65" t="s">
-        <v>1292</v>
+        <v>1286</v>
+      </c>
+      <c r="O53" s="50" t="s">
+        <v>1287</v>
       </c>
       <c r="P53" s="50" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q53" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q53" s="70">
+        <v>44507</v>
       </c>
       <c r="R53" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S53" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T53" s="70">
         <v>44511</v>
       </c>
-      <c r="T53" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U53" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="54" ht="40.5" spans="1:21">
+    </row>
+    <row r="54" ht="40.5" spans="1:20">
       <c r="A54" s="50" t="s">
         <v>498</v>
       </c>
@@ -48670,24 +48511,23 @@
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="O54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="50"/>
       <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
+      <c r="Q54" s="70">
+        <v>44507</v>
+      </c>
       <c r="R54" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S54" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T54" s="70">
         <v>44511</v>
       </c>
-      <c r="T54" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U54" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="55" ht="85.5" spans="1:21">
+    </row>
+    <row r="55" ht="85.5" spans="1:20">
       <c r="A55" s="50" t="s">
         <v>501</v>
       </c>
@@ -48695,16 +48535,16 @@
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="51" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="G55" s="50" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="H55" s="65" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="I55" s="50" t="s">
         <v>10</v>
@@ -48712,56 +48552,53 @@
       <c r="J55" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K55" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K55" s="65"/>
       <c r="L55" s="50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M55" s="50"/>
+        <v>1195</v>
+      </c>
+      <c r="M55" s="65" t="s">
+        <v>1293</v>
+      </c>
       <c r="N55" s="65" t="s">
-        <v>1299</v>
+        <v>1364</v>
       </c>
       <c r="O55" s="65" t="s">
-        <v>1373</v>
-      </c>
-      <c r="P55" s="65" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Q55" s="50" t="s">
-        <v>1294</v>
+        <v>1365</v>
+      </c>
+      <c r="P55" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q55" s="70">
+        <v>44507</v>
       </c>
       <c r="R55" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S55" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T55" s="70">
         <v>44511</v>
       </c>
-      <c r="T55" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U55" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="56" ht="85.5" spans="1:21">
+    </row>
+    <row r="56" ht="85.5" spans="1:20">
       <c r="A56" s="50" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
       <c r="E56" s="51" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="F56" s="50" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="G56" s="50" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="H56" s="65" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="I56" s="50" t="s">
         <v>10</v>
@@ -48769,41 +48606,38 @@
       <c r="J56" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K56" s="65" t="s">
-        <v>1261</v>
-      </c>
+      <c r="K56" s="65"/>
       <c r="L56" s="50" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M56" s="50"/>
+        <v>1256</v>
+      </c>
+      <c r="M56" s="65" t="s">
+        <v>1293</v>
+      </c>
       <c r="N56" s="65" t="s">
-        <v>1299</v>
-      </c>
-      <c r="O56" s="65" t="s">
-        <v>1373</v>
+        <v>1364</v>
+      </c>
+      <c r="O56" s="50" t="s">
+        <v>1365</v>
       </c>
       <c r="P56" s="50" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Q56" s="50" t="s">
-        <v>1294</v>
+        <v>1288</v>
+      </c>
+      <c r="Q56" s="70">
+        <v>44507</v>
       </c>
       <c r="R56" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S56" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T56" s="70">
         <v>44511</v>
       </c>
-      <c r="T56" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U56" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="57" ht="30.95" customHeight="1" spans="1:21">
+    </row>
+    <row r="57" ht="30.95" customHeight="1" spans="1:20">
       <c r="A57" s="50" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="B57" s="51"/>
       <c r="C57" s="51" t="s">
@@ -48820,38 +48654,37 @@
       <c r="J57" s="50"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
+      <c r="N57" s="65"/>
       <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="70">
+        <v>44507</v>
+      </c>
       <c r="R57" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S57" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T57" s="70">
         <v>44511</v>
       </c>
-      <c r="T57" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U57" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="58" ht="128.25" spans="1:21">
+    </row>
+    <row r="58" ht="128.25" spans="1:20">
       <c r="A58" s="50" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="E58" s="49" t="s">
         <v>465</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="G58" s="65" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="H58" s="65" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="I58" s="50" t="s">
         <v>10</v>
@@ -48859,40 +48692,38 @@
       <c r="J58" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K58" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K58" s="65"/>
       <c r="L58" s="50" t="s">
-        <v>1197</v>
+        <v>1195</v>
+      </c>
+      <c r="M58" s="65" t="s">
+        <v>1357</v>
       </c>
       <c r="N58" s="65" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="O58" s="65" t="s">
-        <v>1354</v>
-      </c>
-      <c r="P58" s="65" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Q58" s="50" t="s">
-        <v>1294</v>
+        <v>1347</v>
+      </c>
+      <c r="P58" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q58" s="70">
+        <v>44507</v>
       </c>
       <c r="R58" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S58" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T58" s="70">
         <v>44511</v>
       </c>
-      <c r="T58" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U58" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="59" ht="40.5" spans="1:21">
+    </row>
+    <row r="59" ht="40.5" spans="1:20">
       <c r="A59" s="50" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="D59" s="64" t="s">
         <v>500</v>
@@ -48900,37 +48731,37 @@
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
       <c r="L59" s="50"/>
+      <c r="N59" s="65"/>
       <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="70">
+        <v>44507</v>
+      </c>
       <c r="R59" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S59" s="70">
+        <v>44510</v>
+      </c>
+      <c r="T59" s="70">
         <v>44511</v>
       </c>
-      <c r="T59" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U59" s="70">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="60" ht="99.75" spans="1:21">
+    </row>
+    <row r="60" ht="99.75" spans="1:20">
       <c r="A60" s="50" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="E60" s="64" t="s">
         <v>503</v>
       </c>
       <c r="F60" s="65" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="G60" s="65" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="H60" s="65" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="I60" s="50" t="s">
         <v>10</v>
@@ -48938,31 +48769,29 @@
       <c r="J60" s="50" t="s">
         <v>1164</v>
       </c>
-      <c r="K60" s="65" t="s">
-        <v>1254</v>
-      </c>
+      <c r="K60" s="65"/>
       <c r="L60" s="50" t="s">
-        <v>1197</v>
+        <v>1195</v>
+      </c>
+      <c r="N60" s="65" t="s">
+        <v>1380</v>
       </c>
       <c r="O60" s="65" t="s">
-        <v>1389</v>
-      </c>
-      <c r="P60" s="65" t="s">
-        <v>1390</v>
-      </c>
-      <c r="Q60" s="50" t="s">
-        <v>1294</v>
+        <v>1381</v>
+      </c>
+      <c r="P60" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q60" s="70">
+        <v>44507</v>
       </c>
       <c r="R60" s="70">
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="S60" s="70">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="T60" s="70">
-        <v>44510</v>
-      </c>
-      <c r="U60" s="70">
         <v>44511</v>
       </c>
     </row>
@@ -49007,7 +48836,7 @@
   <sheetData>
     <row r="2" ht="40.5" spans="1:22">
       <c r="A2" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="B2" t="s">
         <v>308</v>
@@ -49018,13 +48847,13 @@
         <v>1177</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="J2" t="s">
         <v>1182</v>
@@ -49033,25 +48862,25 @@
         <v>1183</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="M2" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>1185</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>1186</v>
-      </c>
       <c r="O2" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="P2" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="Q2" s="44" t="s">
         <v>310</v>
       </c>
       <c r="V2" s="44" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="3" ht="27" hidden="1" spans="2:27">
@@ -49068,19 +48897,19 @@
         <v>316</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="W3" t="s">
         <v>188</v>
@@ -49100,7 +48929,7 @@
     </row>
     <row r="4" ht="42" spans="1:16">
       <c r="A4" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -49109,25 +48938,25 @@
         <v>78</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -49140,18 +48969,18 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -49163,14 +48992,14 @@
     </row>
     <row r="6" ht="67.5" spans="1:16">
       <c r="A6" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="22" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
@@ -49184,7 +49013,7 @@
     </row>
     <row r="7" ht="27" spans="1:27">
       <c r="A7" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -49194,37 +49023,37 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="23"/>
       <c r="P7" s="20" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="45" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="V7" s="20"/>
       <c r="W7" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X7" s="46">
         <v>44427</v>
@@ -49243,18 +49072,18 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
@@ -49264,18 +49093,18 @@
         <v>618</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="T8" s="20"/>
       <c r="U8" s="45" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="V8" s="20"/>
       <c r="W8" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X8" s="46">
         <v>44427</v>
@@ -49294,17 +49123,17 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="H9" s="20" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="23"/>
@@ -49324,22 +49153,22 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
@@ -49347,16 +49176,16 @@
         <v>1107</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="45" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="V10" s="20"/>
       <c r="W10" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X10" s="46">
         <v>44427</v>
@@ -49373,14 +49202,14 @@
     </row>
     <row r="11" ht="54" spans="1:22">
       <c r="A11" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
         <v>342</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -49399,14 +49228,14 @@
     </row>
     <row r="12" ht="54" spans="1:22">
       <c r="A12" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
         <v>345</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -49425,46 +49254,46 @@
     </row>
     <row r="13" ht="162" spans="1:27">
       <c r="A13" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>348</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="45" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="V13" s="20"/>
       <c r="W13" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X13" s="46">
         <v>44427</v>
@@ -49483,13 +49312,13 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -49497,12 +49326,12 @@
       <c r="O14" s="23"/>
       <c r="P14" s="20"/>
       <c r="R14" s="20" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
       <c r="U14" s="45" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="V14" s="20"/>
       <c r="X14" s="46"/>
@@ -49518,21 +49347,21 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="23"/>
@@ -49541,16 +49370,16 @@
         <v>1107</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="45" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="V15" s="20"/>
       <c r="W15" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X15" s="46">
         <v>44428</v>
@@ -49569,18 +49398,18 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -49590,16 +49419,16 @@
         <v>1107</v>
       </c>
       <c r="R16" s="20" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
       <c r="U16" s="45" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="V16" s="20"/>
       <c r="W16" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X16" s="46">
         <v>44428</v>
@@ -49618,10 +49447,10 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -49640,14 +49469,14 @@
     </row>
     <row r="18" ht="54" spans="1:22">
       <c r="A18" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -49666,17 +49495,17 @@
     </row>
     <row r="19" ht="27" spans="1:22">
       <c r="A19" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>354</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -49697,31 +49526,31 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="22" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="20" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="47" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="V20" s="20"/>
       <c r="X20" s="46">
@@ -49739,14 +49568,14 @@
     </row>
     <row r="21" ht="81" spans="1:22">
       <c r="A21" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
         <v>357</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -49765,14 +49594,14 @@
     </row>
     <row r="22" ht="27" spans="1:22">
       <c r="A22" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>360</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -49791,14 +49620,14 @@
     </row>
     <row r="23" ht="54" spans="1:22">
       <c r="A23" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -49817,38 +49646,38 @@
     </row>
     <row r="24" ht="63" spans="1:27">
       <c r="A24" s="19" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>366</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="22" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="M24" s="20"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="R24" s="20" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="45" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="V24" s="20"/>
       <c r="X24" s="46">
@@ -49866,23 +49695,23 @@
     </row>
     <row r="25" ht="54" spans="1:27">
       <c r="A25" s="19" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>369</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -49890,12 +49719,12 @@
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
       <c r="R25" s="20" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
       <c r="U25" s="47" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="V25" s="20"/>
       <c r="X25" s="46">
@@ -49916,31 +49745,31 @@
       <c r="D26" s="21"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
       <c r="R26" s="20" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="47" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="V26" s="20"/>
       <c r="X26" s="46">
@@ -49958,28 +49787,28 @@
     </row>
     <row r="27" ht="40.5" spans="1:22">
       <c r="A27" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="C27" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -49998,18 +49827,18 @@
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L28" s="20"/>
       <c r="N28" s="20"/>
@@ -50027,18 +49856,18 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -50057,18 +49886,18 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -50085,14 +49914,14 @@
     </row>
     <row r="31" ht="135" spans="1:22">
       <c r="A31" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -50111,25 +49940,25 @@
     </row>
     <row r="32" ht="54" spans="1:22">
       <c r="A32" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -50146,14 +49975,14 @@
     </row>
     <row r="33" ht="67.5" spans="1:22">
       <c r="A33" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="22" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -50172,31 +50001,31 @@
     </row>
     <row r="34" ht="81" spans="1:22">
       <c r="A34" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="M34" s="20"/>
       <c r="N34" s="23"/>
@@ -50212,28 +50041,28 @@
     </row>
     <row r="35" ht="27" spans="1:22">
       <c r="A35" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="C35" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -50252,10 +50081,10 @@
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="43" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -50274,7 +50103,7 @@
     </row>
     <row r="37" ht="40.5" spans="1:22">
       <c r="A37" s="24" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>88</v>
@@ -50283,26 +50112,26 @@
         <v>78</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="18" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
@@ -50322,22 +50151,22 @@
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="18" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
@@ -50357,18 +50186,18 @@
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="18" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -50385,25 +50214,25 @@
     </row>
     <row r="40" ht="67.5" spans="1:22">
       <c r="A40" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
@@ -50420,14 +50249,14 @@
     </row>
     <row r="41" ht="40.5" hidden="1" spans="1:22">
       <c r="A41" s="25" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="E41" s="30"/>
       <c r="H41" s="20"/>
@@ -50447,7 +50276,7 @@
     </row>
     <row r="42" ht="42" spans="1:27">
       <c r="A42" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>83</v>
@@ -50457,21 +50286,21 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="23"/>
@@ -50480,18 +50309,18 @@
         <v>1107</v>
       </c>
       <c r="R42" s="20" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="45" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="V42" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W42" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X42" s="46">
         <v>44428</v>
@@ -50508,28 +50337,28 @@
     </row>
     <row r="43" ht="63" spans="1:27">
       <c r="A43" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>401</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
@@ -50537,18 +50366,18 @@
         <v>1107</v>
       </c>
       <c r="R43" s="20" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="47" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="V43" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X43" s="46">
         <v>44428</v>
@@ -50565,28 +50394,28 @@
     </row>
     <row r="44" ht="27" spans="1:22">
       <c r="A44" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -50603,25 +50432,25 @@
     </row>
     <row r="45" ht="40.5" spans="1:22">
       <c r="A45" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -50638,25 +50467,25 @@
     </row>
     <row r="46" ht="54" spans="1:22">
       <c r="A46" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -50673,14 +50502,14 @@
     </row>
     <row r="47" ht="40.5" spans="1:22">
       <c r="A47" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="43" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -50699,28 +50528,28 @@
     </row>
     <row r="48" ht="40.5" spans="1:22">
       <c r="A48" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="23"/>
@@ -50736,7 +50565,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="27" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>97</v>
@@ -50749,7 +50578,7 @@
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="43" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -50768,14 +50597,14 @@
     </row>
     <row r="50" ht="40.5" spans="1:22">
       <c r="A50" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>401</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="43" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -50794,12 +50623,12 @@
     </row>
     <row r="51" ht="27" hidden="1" spans="1:22">
       <c r="A51" s="25" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="30" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="E51" s="18"/>
       <c r="H51" s="20"/>
@@ -50819,25 +50648,25 @@
     </row>
     <row r="52" ht="40.5" spans="1:27">
       <c r="A52" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>408</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -50847,18 +50676,18 @@
         <v>618</v>
       </c>
       <c r="R52" s="20" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="45" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="V52" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W52" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X52" s="46">
         <v>44428</v>
@@ -50877,21 +50706,21 @@
       <c r="D53" s="22"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
@@ -50899,18 +50728,18 @@
         <v>618</v>
       </c>
       <c r="R53" s="20" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="45" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="V53" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W53" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X53" s="46">
         <v>44428</v>
@@ -50929,18 +50758,18 @@
       <c r="D54" s="22"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -50950,17 +50779,17 @@
         <v>618</v>
       </c>
       <c r="R54" s="20" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="T54" s="20"/>
       <c r="U54" s="45" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="V54" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W54" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X54" s="46">
         <v>44428</v>
@@ -50979,18 +50808,18 @@
       <c r="D55" s="22"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
@@ -51000,18 +50829,18 @@
         <v>618</v>
       </c>
       <c r="R55" s="20" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
       <c r="U55" s="45" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="V55" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W55" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X55" s="46">
         <v>44428</v>
@@ -51030,18 +50859,18 @@
       <c r="D56" s="22"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
@@ -51051,18 +50880,18 @@
         <v>618</v>
       </c>
       <c r="R56" s="20" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="45" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="V56" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W56" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X56" s="46">
         <v>44428</v>
@@ -51081,39 +50910,39 @@
       <c r="D57" s="22"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
       <c r="O57" s="23"/>
       <c r="P57" s="20" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="R57" s="20" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="45" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="V57" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W57" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X57" s="46">
         <v>44428</v>
@@ -51132,21 +50961,21 @@
       <c r="D58" s="22"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
@@ -51155,18 +50984,18 @@
         <v>593</v>
       </c>
       <c r="R58" s="20" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="45" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="V58" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W58" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X58" s="46">
         <v>44428</v>
@@ -51185,18 +51014,18 @@
       <c r="D59" s="22"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
@@ -51206,18 +51035,18 @@
         <v>593</v>
       </c>
       <c r="R59" s="20" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="45" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="V59" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W59" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X59" s="46">
         <v>44428</v>
@@ -51236,18 +51065,18 @@
       <c r="D60" s="22"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
@@ -51257,18 +51086,18 @@
         <v>593</v>
       </c>
       <c r="R60" s="20" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="45" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="V60" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W60" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X60" s="46">
         <v>44428</v>
@@ -51287,39 +51116,39 @@
       <c r="D61" s="22"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
       <c r="P61" s="20" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="R61" s="20" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="45" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="V61" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W61" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X61" s="46">
         <v>44429</v>
@@ -51338,45 +51167,45 @@
       <c r="D62" s="22"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="20" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="O62" s="23"/>
       <c r="P62" s="23" t="s">
         <v>625</v>
       </c>
       <c r="R62" s="20" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="S62" s="20" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="T62" s="20"/>
       <c r="U62" s="45" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="V62" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W62" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X62" s="46">
         <v>44429</v>
@@ -51395,41 +51224,41 @@
       <c r="D63" s="22"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="O63" s="23"/>
       <c r="P63" s="23" t="s">
         <v>625</v>
       </c>
       <c r="R63" s="20" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="45" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="V63" s="20" t="s">
         <v>161</v>
       </c>
       <c r="W63" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X63" s="46">
         <v>44429</v>
@@ -51446,17 +51275,17 @@
     </row>
     <row r="64" ht="40.5" spans="1:16">
       <c r="A64" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="43" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -51476,11 +51305,11 @@
         <v>105</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="43" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
@@ -51674,42 +51503,42 @@
   <sheetData>
     <row r="4" ht="54" spans="3:13">
       <c r="C4" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="F4" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="J4" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="L4" t="s">
         <v>328</v>
       </c>
       <c r="M4" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -51719,52 +51548,52 @@
     </row>
     <row r="8" ht="94.5" spans="3:6">
       <c r="C8" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="9" ht="27" spans="5:12">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="H9" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="J9" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="K9" t="s">
         <v>161</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="10" ht="27" spans="5:12">
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="H10" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>401</v>
       </c>
       <c r="J10" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="K10" t="s">
         <v>161</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="11" ht="81" spans="3:6">
@@ -51772,10 +51601,10 @@
         <v>589</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="12" spans="3:12">
@@ -51783,19 +51612,19 @@
       <c r="D12" s="18"/>
       <c r="F12" s="18"/>
       <c r="H12" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="K12" t="s">
         <v>161</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="13" spans="3:12">
@@ -51803,19 +51632,19 @@
       <c r="D13" s="18"/>
       <c r="F13" s="18"/>
       <c r="H13" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="K13" t="s">
         <v>161</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="14" spans="3:12">
@@ -51823,19 +51652,19 @@
       <c r="D14" s="18"/>
       <c r="F14" s="18"/>
       <c r="H14" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="K14" t="s">
         <v>161</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" ht="27" spans="3:12">
@@ -51843,19 +51672,19 @@
       <c r="D15" s="18"/>
       <c r="F15" s="18"/>
       <c r="H15" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="K15" t="s">
         <v>161</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="16" spans="3:12">
@@ -51863,52 +51692,52 @@
       <c r="D16" s="18"/>
       <c r="F16" s="18"/>
       <c r="H16" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="K16" t="s">
         <v>161</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="3:6">
       <c r="C17" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="F17" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="18" ht="94.5" spans="3:6">
       <c r="C18" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="19" ht="108" spans="3:6">
       <c r="C19" s="18" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="20" ht="27" spans="3:12">
@@ -51916,19 +51745,19 @@
       <c r="D20" s="18"/>
       <c r="F20" s="18"/>
       <c r="H20" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="K20" t="s">
         <v>161</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="21" ht="27" spans="3:12">
@@ -51936,19 +51765,19 @@
       <c r="D21" s="18"/>
       <c r="F21" s="18"/>
       <c r="H21" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="K21" t="s">
         <v>161</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="22" ht="27" spans="3:12">
@@ -51956,19 +51785,19 @@
       <c r="D22" s="18"/>
       <c r="F22" s="18"/>
       <c r="H22" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="K22" t="s">
         <v>161</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="23" ht="27" spans="3:12">
@@ -51976,19 +51805,19 @@
       <c r="D23" s="18"/>
       <c r="F23" s="18"/>
       <c r="H23" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="K23" t="s">
         <v>161</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="24" ht="27" spans="3:12">
@@ -51996,154 +51825,154 @@
       <c r="D24" s="18"/>
       <c r="F24" s="18"/>
       <c r="H24" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="K24" t="s">
         <v>161</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="3:6">
       <c r="C25" s="40" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="F25" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="26" ht="94.5" spans="3:6">
       <c r="C26" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="F26" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="27" spans="4:12">
       <c r="D27" s="18"/>
       <c r="H27" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="K27" t="s">
         <v>161</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="28" spans="4:12">
       <c r="D28" s="18"/>
       <c r="H28" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="K28" t="s">
         <v>161</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="29" spans="4:12">
       <c r="D29" s="18"/>
       <c r="H29" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="K29" t="s">
         <v>161</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="30" ht="27" spans="4:12">
       <c r="D30" s="18"/>
       <c r="H30" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="K30" t="s">
         <v>161</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="31" spans="4:12">
       <c r="D31" s="18"/>
       <c r="H31" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="K31" t="s">
         <v>161</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="32" ht="27" spans="4:12">
       <c r="D32" s="18"/>
       <c r="H32" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="K32" t="s">
         <v>161</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -52153,49 +51982,49 @@
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="38" ht="27" spans="8:13">
       <c r="H38" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="K38" t="s">
         <v>161</v>
       </c>
       <c r="L38" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="39" ht="27" spans="8:13">
       <c r="H39" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="K39" t="s">
         <v>161</v>
       </c>
       <c r="L39" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="M39" t="s">
         <v>309</v>
@@ -52203,127 +52032,127 @@
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="K41" t="s">
         <v>161</v>
       </c>
       <c r="L41" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="M41" s="41" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="42" ht="108" spans="8:13">
       <c r="H42" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="43" ht="40.5" spans="8:13">
       <c r="H43" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="K43" t="s">
         <v>161</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="44" ht="27" spans="8:13">
       <c r="H44" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="K44" t="s">
         <v>161</v>
       </c>
       <c r="L44" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="45" ht="27" spans="8:13">
       <c r="H45" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="K45" t="s">
         <v>161</v>
       </c>
       <c r="L45" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="K46" t="s">
         <v>161</v>
       </c>
       <c r="L46" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="M46" s="41" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -52438,7 +52267,7 @@
   <sheetPr/>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -52453,37 +52282,37 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="6" width="15.625" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:11">
       <c r="A1" s="32" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>212</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>1189</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>1190</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>1191</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>1192</v>
-      </c>
       <c r="H1" s="36" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>188</v>
@@ -53929,26 +53758,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="B2" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="B3" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="B4" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -53956,22 +53785,22 @@
         <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -54001,28 +53830,28 @@
         <v>1142</v>
       </c>
       <c r="B1" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="C1" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="D1" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="E1" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="F1" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="H1" t="s">
         <v>1093</v>
       </c>
       <c r="I1" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="J1" t="s">
         <v>1092</v>
@@ -54036,7 +53865,7 @@
         <v>1147</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
     </row>
   </sheetData>
@@ -54071,7 +53900,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="19" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -54090,25 +53919,25 @@
         <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="I3" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="M3" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="N3" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="3:12">
@@ -54131,10 +53960,10 @@
     </row>
     <row r="5" ht="40.5" hidden="1" spans="1:12">
       <c r="A5" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="B5" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -54143,7 +53972,7 @@
         <v>78</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -54153,14 +53982,14 @@
     </row>
     <row r="6" ht="67.5" hidden="1" spans="1:12">
       <c r="A6" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="B6" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="22" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="G6" s="22"/>
       <c r="J6"/>
@@ -54169,7 +53998,7 @@
     </row>
     <row r="7" ht="52.5" spans="1:13">
       <c r="A7" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="B7" t="s">
         <v>336</v>
@@ -54182,22 +54011,22 @@
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H7" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="M7" t="s">
         <v>161</v>
@@ -54209,13 +54038,13 @@
       <c r="G8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="23" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="M8" t="s">
         <v>161</v>
@@ -54223,7 +54052,7 @@
     </row>
     <row r="9" ht="54" spans="1:13">
       <c r="A9" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B9" t="s">
         <v>341</v>
@@ -54233,22 +54062,22 @@
         <v>342</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H9" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="M9" t="s">
         <v>161</v>
@@ -54256,7 +54085,7 @@
     </row>
     <row r="10" ht="54" spans="1:8">
       <c r="A10" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="B10" t="s">
         <v>344</v>
@@ -54266,15 +54095,15 @@
         <v>345</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="11" ht="84" spans="1:13">
       <c r="A11" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="B11" t="s">
         <v>347</v>
@@ -54284,22 +54113,22 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>1742</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>1708</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>1750</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>1744</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>1751</v>
       </c>
       <c r="M11" t="s">
         <v>161</v>
@@ -54309,34 +54138,34 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" ht="81" spans="1:8">
       <c r="A13" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="B13" t="s">
         <v>350</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:13">
       <c r="A14" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="B14" t="s">
         <v>353</v>
@@ -54346,22 +54175,22 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H14" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="M14" t="s">
         <v>161</v>
@@ -54371,22 +54200,22 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H15" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="M15" t="s">
         <v>161</v>
@@ -54396,22 +54225,22 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H16" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="M16" t="s">
         <v>161</v>
@@ -54419,7 +54248,7 @@
     </row>
     <row r="17" ht="81" spans="1:8">
       <c r="A17" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="B17" t="s">
         <v>356</v>
@@ -54429,15 +54258,15 @@
         <v>357</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="18" ht="52.5" spans="1:13">
       <c r="A18" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="B18" t="s">
         <v>359</v>
@@ -54447,22 +54276,22 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H18" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="M18" t="s">
         <v>161</v>
@@ -54470,62 +54299,62 @@
     </row>
     <row r="19" ht="108" spans="1:8">
       <c r="A19" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="B19" t="s">
         <v>362</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="22" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>366</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="21" ht="108" spans="1:13">
       <c r="A21" s="19" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>369</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H21" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="M21" t="s">
         <v>161</v>
@@ -54533,7 +54362,7 @@
     </row>
     <row r="22" ht="54" hidden="1" spans="1:12">
       <c r="A22" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="B22" t="s">
         <v>365</v>
@@ -54542,7 +54371,7 @@
         <v>84</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -54552,14 +54381,14 @@
     </row>
     <row r="23" ht="135" hidden="1" spans="1:12">
       <c r="A23" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="B23" t="s">
         <v>368</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="G23" s="18"/>
       <c r="J23"/>
@@ -54568,13 +54397,13 @@
     </row>
     <row r="24" ht="67.5" hidden="1" spans="1:12">
       <c r="A24" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="B24" t="s">
         <v>371</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -54584,14 +54413,14 @@
     </row>
     <row r="25" ht="67.5" hidden="1" spans="1:12">
       <c r="A25" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="B25" t="s">
         <v>375</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="22" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="G25" s="22"/>
       <c r="J25"/>
@@ -54600,7 +54429,7 @@
     </row>
     <row r="26" ht="94.5" hidden="1" spans="1:12">
       <c r="A26" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="B26" t="s">
         <v>378</v>
@@ -54609,7 +54438,7 @@
         <v>105</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -54619,16 +54448,16 @@
     </row>
     <row r="27" ht="40.5" hidden="1" spans="1:12">
       <c r="A27" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="B27" t="s">
         <v>381</v>
       </c>
       <c r="D27" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -54638,10 +54467,10 @@
     </row>
     <row r="28" ht="54" hidden="1" spans="1:12">
       <c r="A28" s="24" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>88</v>
@@ -54650,7 +54479,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -54660,13 +54489,13 @@
     </row>
     <row r="29" ht="81" hidden="1" spans="1:12">
       <c r="A29" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="B29" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -54676,17 +54505,17 @@
     </row>
     <row r="30" ht="40.5" hidden="1" spans="1:12">
       <c r="A30" s="25" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
         <v>83</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -54696,10 +54525,10 @@
     </row>
     <row r="31" ht="54" spans="1:13">
       <c r="A31" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="B31" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>83</v>
@@ -54709,22 +54538,22 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H31" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="M31" t="s">
         <v>161</v>
@@ -54737,13 +54566,13 @@
       <c r="G32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="20" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="M32" t="s">
         <v>161</v>
@@ -54751,32 +54580,32 @@
     </row>
     <row r="33" ht="54" spans="1:13">
       <c r="A33" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="B33" t="s">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>401</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H33" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>401</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="M33" t="s">
         <v>161</v>
@@ -54784,16 +54613,16 @@
     </row>
     <row r="34" ht="27" hidden="1" spans="1:12">
       <c r="A34" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="B34" t="s">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="D34" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -54803,13 +54632,13 @@
     </row>
     <row r="35" ht="40.5" hidden="1" spans="1:12">
       <c r="A35" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="B35" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -54819,13 +54648,13 @@
     </row>
     <row r="36" ht="27" hidden="1" spans="1:12">
       <c r="A36" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="B36" t="s">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -54835,13 +54664,13 @@
     </row>
     <row r="37" ht="40.5" hidden="1" spans="1:12">
       <c r="A37" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="B37" t="s">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -54851,13 +54680,13 @@
     </row>
     <row r="38" ht="54" hidden="1" spans="1:12">
       <c r="A38" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="B38" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -54867,10 +54696,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>97</v>
@@ -54883,43 +54712,43 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="I39" s="18"/>
     </row>
     <row r="40" ht="54" spans="1:9">
       <c r="A40" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="B40" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>401</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="I40" s="18"/>
     </row>
     <row r="41" ht="40.5" hidden="1" spans="1:12">
       <c r="A41" s="25" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="30" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -54929,29 +54758,29 @@
     </row>
     <row r="42" ht="54" spans="1:13">
       <c r="A42" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>408</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H42" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="M42" t="s">
         <v>161</v>
@@ -54963,13 +54792,13 @@
       <c r="G43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="23" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="M43" t="s">
         <v>161</v>
@@ -54979,22 +54808,22 @@
       <c r="E44" s="22"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H44" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="M44" t="s">
         <v>161</v>
@@ -55004,22 +54833,22 @@
       <c r="E45" s="22"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H45" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="M45" t="s">
         <v>161</v>
@@ -55029,22 +54858,22 @@
       <c r="E46" s="22"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H46" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="M46" t="s">
         <v>161</v>
@@ -55054,22 +54883,22 @@
       <c r="E47" s="22"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H47" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="M47" t="s">
         <v>161</v>
@@ -55079,22 +54908,22 @@
       <c r="E48" s="22"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H48" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="M48" t="s">
         <v>161</v>
@@ -55104,22 +54933,22 @@
       <c r="E49" s="22"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H49" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="M49" t="s">
         <v>161</v>
@@ -55131,13 +54960,13 @@
       <c r="G50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="23" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="M50" t="s">
         <v>161</v>
@@ -55147,22 +54976,22 @@
       <c r="E51" s="22"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H51" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="M51" t="s">
         <v>161</v>
@@ -55172,22 +55001,22 @@
       <c r="E52" s="22"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H52" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="M52" t="s">
         <v>161</v>
@@ -55197,22 +55026,22 @@
       <c r="E53" s="22"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H53" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="M53" t="s">
         <v>161</v>
@@ -55222,22 +55051,22 @@
       <c r="E54" s="22"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H54" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="M54" t="s">
         <v>161</v>
@@ -55247,22 +55076,22 @@
       <c r="E55" s="22"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H55" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>1813</v>
+        <v>1804</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="M55" t="s">
         <v>161</v>
@@ -55274,13 +55103,13 @@
       <c r="G56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="20" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="M56" t="s">
         <v>161</v>
@@ -55290,22 +55119,22 @@
       <c r="E57" s="22"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H57" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="M57" t="s">
         <v>161</v>
@@ -55315,22 +55144,22 @@
       <c r="E58" s="22"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H58" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
       <c r="M58" t="s">
         <v>161</v>
@@ -55340,22 +55169,22 @@
       <c r="E59" s="22"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H59" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>1822</v>
+        <v>1813</v>
       </c>
       <c r="M59" t="s">
         <v>161</v>
@@ -55365,22 +55194,22 @@
       <c r="E60" s="22"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H60" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>1823</v>
+        <v>1814</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>1824</v>
+        <v>1815</v>
       </c>
       <c r="M60" t="s">
         <v>161</v>
@@ -55388,16 +55217,16 @@
     </row>
     <row r="61" ht="27" hidden="1" spans="1:12">
       <c r="A61" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="B61" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="D61" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -55413,7 +55242,7 @@
         <v>105</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -55480,45 +55309,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:2">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
-        <v>1827</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="18" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="22" t="s">
-        <v>1830</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="2:2">
       <c r="B8" s="18" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>
@@ -55544,37 +55373,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1840</v>
+        <v>1831</v>
       </c>
     </row>
   </sheetData>
@@ -55606,102 +55435,102 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1841</v>
+        <v>1832</v>
       </c>
       <c r="D2" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:2">
       <c r="B3" s="18" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>1844</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:3">
       <c r="C5" s="18" t="s">
-        <v>1845</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>1846</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="3:3">
       <c r="C9" s="18" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>1853</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1854</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="16" ht="108" spans="3:10">
       <c r="C16" s="18" t="s">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" t="s">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="G16" t="s">
-        <v>1858</v>
+        <v>1849</v>
       </c>
       <c r="H16" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="I16" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="J16" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="18" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -55718,10 +55547,10 @@
     </row>
     <row r="18" ht="199.5" spans="3:10">
       <c r="C18" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18">
@@ -55735,17 +55564,17 @@
         <v>4</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="G19">
         <v>0.3</v>
@@ -55753,14 +55582,14 @@
       <c r="H19" s="19"/>
       <c r="I19" s="18"/>
       <c r="J19" s="21" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="20" ht="27" spans="3:10">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="G20">
         <v>1.7</v>
@@ -55773,7 +55602,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="G21">
         <v>1.7</v>
@@ -55797,7 +55626,7 @@
     </row>
     <row r="23" ht="315" spans="4:10">
       <c r="D23" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -55810,15 +55639,15 @@
         <v>4</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="G24">
         <v>4.3</v>
@@ -55827,7 +55656,7 @@
     </row>
     <row r="25" spans="5:8">
       <c r="E25" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="G25">
         <v>2.7</v>
@@ -55836,7 +55665,7 @@
     </row>
     <row r="26" ht="42" spans="4:10">
       <c r="D26" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -55849,23 +55678,23 @@
         <v>-1.5</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="28" ht="108" spans="4:10">
       <c r="D28" s="18" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
     </row>
   </sheetData>
@@ -55891,27 +55720,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="17" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="17" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -55937,22 +55766,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
     </row>
   </sheetData>
@@ -63473,6 +63302,23 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -66863,6 +66709,7 @@
     <woSheetProps sheetStid="30" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
     <woSheetProps sheetStid="17" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
     <woSheetProps sheetStid="49" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
+    <woSheetProps sheetStid="56" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
   </woSheetsProps>
   <woBookProps>
     <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
@@ -66911,6 +66758,7 @@
   <rangeList sheetStid="30" master=""/>
   <rangeList sheetStid="17" master=""/>
   <rangeList sheetStid="49" master=""/>
+  <rangeList sheetStid="56" master=""/>
 </allowEditUser>
 </file>
 
@@ -66955,7 +66803,8 @@
   <pixelatorList sheetStid="30"/>
   <pixelatorList sheetStid="17"/>
   <pixelatorList sheetStid="49"/>
-  <pixelatorList sheetStid="55"/>
+  <pixelatorList sheetStid="56"/>
+  <pixelatorList sheetStid="57"/>
 </pixelators>
 </file>
 
